--- a/tests/indicators/e-k/Ema/Ema.Calc.xlsx
+++ b/tests/indicators/e-k/Ema/Ema.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB686E6F-67CE-4B5C-8A70-FFABE87B19EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960496F-D98C-4DF8-9444-46173756941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24780" yWindow="0" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMA" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,16 @@
     <definedName name="Multiplier">EMA!$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +35,6 @@
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>K</t>
@@ -43,6 +50,9 @@
   </si>
   <si>
     <t>ema(O)</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -637,30 +647,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -689,6 +675,30 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -791,21 +801,21 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{9E07DD42-C4E8-4FC8-B9AD-69351153D835}" name="open" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{CCA452AB-38E1-42AA-91FD-6BFBC447EA51}" name="ema(O)" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{9E07DD42-C4E8-4FC8-B9AD-69351153D835}" name="open" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{CCA452AB-38E1-42AA-91FD-6BFBC447EA51}" name="ema(O)" dataDxfId="3" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="H1:H3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="H1:H3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Comma">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>2/(20+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1118,7 +1128,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -1129,7 +1139,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1138,23 +1148,23 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="G1"/>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -1176,7 +1186,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -1191,13 +1201,13 @@
       <c r="F3" s="10"/>
       <c r="G3"/>
       <c r="H3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -1216,7 +1226,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -1235,7 +1245,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -1254,7 +1264,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -1273,7 +1283,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -1292,7 +1302,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -1311,7 +1321,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -1330,7 +1340,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -1349,7 +1359,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -1368,7 +1378,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -1387,7 +1397,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -1406,7 +1416,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -1425,7 +1435,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -1444,7 +1454,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -1463,7 +1473,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -1482,7 +1492,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -1501,7 +1511,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -1520,7 +1530,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -1545,7 +1555,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -1570,7 +1580,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -1595,7 +1605,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -1620,7 +1630,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -1645,7 +1655,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -1670,7 +1680,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -1695,7 +1705,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -1720,7 +1730,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -1745,7 +1755,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -1770,7 +1780,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -1795,7 +1805,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -1820,7 +1830,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -1845,7 +1855,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -1870,7 +1880,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -1895,7 +1905,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -1920,7 +1930,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -1945,7 +1955,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -1970,7 +1980,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -1995,7 +2005,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -2020,7 +2030,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -2045,7 +2055,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -2070,7 +2080,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -2095,7 +2105,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -2120,7 +2130,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -2145,7 +2155,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -2170,7 +2180,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -2195,7 +2205,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -2220,7 +2230,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -2245,7 +2255,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -2270,7 +2280,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -2295,7 +2305,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -2320,7 +2330,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -2345,7 +2355,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -2370,7 +2380,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -2395,7 +2405,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -2420,7 +2430,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -2445,7 +2455,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -2470,7 +2480,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -2495,7 +2505,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -2520,7 +2530,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -2545,7 +2555,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -2570,7 +2580,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -2595,7 +2605,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -2620,7 +2630,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -2645,7 +2655,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -2670,7 +2680,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -2695,7 +2705,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -2720,7 +2730,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -2745,7 +2755,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -2770,7 +2780,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -2795,7 +2805,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -2820,7 +2830,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -2845,7 +2855,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -2870,7 +2880,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -2895,7 +2905,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -2920,7 +2930,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -2945,7 +2955,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -2970,7 +2980,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -2995,7 +3005,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -3020,7 +3030,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -3045,7 +3055,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -3070,7 +3080,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -3095,7 +3105,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -3120,7 +3130,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -3145,7 +3155,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -3170,7 +3180,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -3195,7 +3205,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -3220,7 +3230,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -3245,7 +3255,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -3270,7 +3280,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -3295,7 +3305,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -3320,7 +3330,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -3345,7 +3355,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -3370,7 +3380,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -3395,7 +3405,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -3420,7 +3430,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -3470,7 +3480,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -3495,7 +3505,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -3520,7 +3530,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -3545,7 +3555,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -3570,7 +3580,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -3595,7 +3605,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -3620,7 +3630,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -3645,7 +3655,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -3670,7 +3680,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -3695,7 +3705,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -3720,7 +3730,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -3745,7 +3755,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -3770,7 +3780,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -3795,7 +3805,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -3820,7 +3830,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -3845,7 +3855,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -3870,7 +3880,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -3895,7 +3905,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -3920,7 +3930,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -3945,7 +3955,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -3970,7 +3980,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -3995,7 +4005,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -4020,7 +4030,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -4045,7 +4055,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -4070,7 +4080,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -4095,7 +4105,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -4120,7 +4130,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -4170,7 +4180,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -4195,7 +4205,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -4220,7 +4230,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -4245,7 +4255,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -4270,7 +4280,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -4295,7 +4305,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -4320,7 +4330,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -4345,7 +4355,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -4370,7 +4380,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -4395,7 +4405,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -4420,7 +4430,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -4445,7 +4455,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -4470,7 +4480,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -4495,7 +4505,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -4520,7 +4530,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -4545,7 +4555,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -4570,7 +4580,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -4595,7 +4605,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -4620,7 +4630,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -4645,7 +4655,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -4670,7 +4680,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -4695,7 +4705,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -4720,7 +4730,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -4745,7 +4755,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -4770,7 +4780,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -4795,7 +4805,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -4820,7 +4830,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -4845,7 +4855,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -4870,7 +4880,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -4895,7 +4905,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -4920,7 +4930,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -4945,7 +4955,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -4970,7 +4980,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -4995,7 +5005,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -5020,7 +5030,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -5045,7 +5055,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -5070,7 +5080,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -5095,7 +5105,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -5120,7 +5130,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -5145,7 +5155,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -5170,7 +5180,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -5195,7 +5205,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -5220,7 +5230,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -5245,7 +5255,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -5270,7 +5280,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -5295,7 +5305,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -5320,7 +5330,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -5345,7 +5355,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -5370,7 +5380,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -5395,7 +5405,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -5420,7 +5430,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -5445,7 +5455,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -5470,7 +5480,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -5495,7 +5505,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -5520,7 +5530,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -5545,7 +5555,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -5570,7 +5580,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -5595,7 +5605,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -5620,7 +5630,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -5645,7 +5655,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -5670,7 +5680,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -5695,7 +5705,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -5720,7 +5730,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -5745,7 +5755,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -5770,7 +5780,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -5795,7 +5805,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -5820,7 +5830,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -5845,7 +5855,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -5870,7 +5880,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -5895,7 +5905,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -5920,7 +5930,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -5945,7 +5955,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -5970,7 +5980,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -5995,7 +6005,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -6020,7 +6030,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -6045,7 +6055,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -6070,7 +6080,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -6095,7 +6105,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -6120,7 +6130,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -6145,7 +6155,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -6170,7 +6180,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -6195,7 +6205,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -6220,7 +6230,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -6245,7 +6255,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -6270,7 +6280,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -6295,7 +6305,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -6320,7 +6330,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -6345,7 +6355,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -6370,7 +6380,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -6395,7 +6405,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -6420,7 +6430,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -6445,7 +6455,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -6470,7 +6480,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -6495,7 +6505,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -6520,7 +6530,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -6545,7 +6555,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -6570,7 +6580,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -6595,7 +6605,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -6620,7 +6630,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -6645,7 +6655,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -6670,7 +6680,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -6695,7 +6705,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -6720,7 +6730,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -6745,7 +6755,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -6770,7 +6780,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -6795,7 +6805,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -6820,7 +6830,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -6845,7 +6855,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -6870,7 +6880,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -6895,7 +6905,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -6920,7 +6930,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -6945,7 +6955,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -6970,7 +6980,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -6995,7 +7005,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -7020,7 +7030,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -7045,7 +7055,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -7070,7 +7080,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -7095,7 +7105,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -7120,7 +7130,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -7145,7 +7155,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -7170,7 +7180,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -7195,7 +7205,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -7220,7 +7230,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -7245,7 +7255,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -7270,7 +7280,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -7295,7 +7305,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -7320,7 +7330,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -7345,7 +7355,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -7370,7 +7380,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -7395,7 +7405,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -7420,7 +7430,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -7445,7 +7455,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -7470,7 +7480,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -7495,7 +7505,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -7520,7 +7530,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -7545,7 +7555,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -7570,7 +7580,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -7595,7 +7605,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -7620,7 +7630,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -7645,7 +7655,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -7670,7 +7680,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -7695,7 +7705,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -7720,7 +7730,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -7745,7 +7755,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -7770,7 +7780,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -7795,7 +7805,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -7820,7 +7830,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -7845,7 +7855,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -7870,7 +7880,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -7895,7 +7905,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -7920,7 +7930,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -7945,7 +7955,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -7970,7 +7980,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -7995,7 +8005,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -8020,7 +8030,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -8045,7 +8055,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -8070,7 +8080,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -8095,7 +8105,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -8120,7 +8130,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -8145,7 +8155,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -8170,7 +8180,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -8195,7 +8205,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -8220,7 +8230,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -8245,7 +8255,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -8270,7 +8280,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -8295,7 +8305,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -8320,7 +8330,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -8345,7 +8355,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -8370,7 +8380,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -8395,7 +8405,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -8420,7 +8430,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -8445,7 +8455,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -8470,7 +8480,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -8495,7 +8505,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -8520,7 +8530,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -8545,7 +8555,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -8570,7 +8580,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -8595,7 +8605,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -8620,7 +8630,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -8645,7 +8655,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -8670,7 +8680,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -8695,7 +8705,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -8720,7 +8730,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -8745,7 +8755,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -8770,7 +8780,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -8795,7 +8805,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -8820,7 +8830,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -8845,7 +8855,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -8870,7 +8880,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -8895,7 +8905,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -8920,7 +8930,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -8945,7 +8955,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -8970,7 +8980,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -8995,7 +9005,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -9020,7 +9030,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -9045,7 +9055,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -9070,7 +9080,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -9095,7 +9105,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -9120,7 +9130,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -9145,7 +9155,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -9170,7 +9180,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -9195,7 +9205,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -9220,7 +9230,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -9245,7 +9255,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -9270,7 +9280,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -9295,7 +9305,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -9320,7 +9330,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -9345,7 +9355,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -9370,7 +9380,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -9395,7 +9405,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -9420,7 +9430,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -9445,7 +9455,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -9470,7 +9480,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -9495,7 +9505,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -9520,7 +9530,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -9545,7 +9555,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -9570,7 +9580,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -9595,7 +9605,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -9620,7 +9630,7 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -9645,7 +9655,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -9670,7 +9680,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -9695,7 +9705,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -9720,7 +9730,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -9745,7 +9755,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -9770,7 +9780,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -9795,7 +9805,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -9820,7 +9830,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -9845,7 +9855,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -9870,7 +9880,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -9895,7 +9905,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -9920,7 +9930,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -9945,7 +9955,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -9970,7 +9980,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -9995,7 +10005,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -10020,7 +10030,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -10045,7 +10055,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -10070,7 +10080,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -10095,7 +10105,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -10120,7 +10130,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -10145,7 +10155,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -10170,7 +10180,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -10195,7 +10205,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -10220,7 +10230,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -10245,7 +10255,7 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -10270,7 +10280,7 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -10295,7 +10305,7 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -10320,7 +10330,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -10345,7 +10355,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -10370,7 +10380,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -10395,7 +10405,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -10420,7 +10430,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -10445,7 +10455,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -10470,7 +10480,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -10495,7 +10505,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -10520,7 +10530,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -10545,7 +10555,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -10570,7 +10580,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -10595,7 +10605,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -10620,7 +10630,7 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -10645,7 +10655,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -10670,7 +10680,7 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -10695,7 +10705,7 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -10720,7 +10730,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -10745,7 +10755,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -10770,7 +10780,7 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -10795,7 +10805,7 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -10820,7 +10830,7 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -10845,7 +10855,7 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -10870,7 +10880,7 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -10895,7 +10905,7 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -10920,7 +10930,7 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -10945,7 +10955,7 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -10970,7 +10980,7 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -10995,7 +11005,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -11020,7 +11030,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -11045,7 +11055,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -11070,7 +11080,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -11095,7 +11105,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -11120,7 +11130,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -11145,7 +11155,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -11170,7 +11180,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -11195,7 +11205,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -11220,7 +11230,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -11245,7 +11255,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -11270,7 +11280,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -11295,7 +11305,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -11320,7 +11330,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -11345,7 +11355,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -11370,7 +11380,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -11395,7 +11405,7 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -11420,7 +11430,7 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -11445,7 +11455,7 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -11470,7 +11480,7 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -11495,7 +11505,7 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -11520,7 +11530,7 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -11545,7 +11555,7 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -11570,7 +11580,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -11595,7 +11605,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -11620,7 +11630,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -11645,7 +11655,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -11670,7 +11680,7 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -11695,7 +11705,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -11720,7 +11730,7 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -11745,7 +11755,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -11770,7 +11780,7 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -11795,7 +11805,7 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -11820,7 +11830,7 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -11845,7 +11855,7 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -11870,7 +11880,7 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -11895,7 +11905,7 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -11920,7 +11930,7 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -11945,7 +11955,7 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -11970,7 +11980,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -11995,7 +12005,7 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -12020,7 +12030,7 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -12045,7 +12055,7 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -12070,7 +12080,7 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -12095,7 +12105,7 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -12120,7 +12130,7 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -12145,7 +12155,7 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -12170,7 +12180,7 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -12195,7 +12205,7 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -12220,7 +12230,7 @@
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -12245,7 +12255,7 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -12270,7 +12280,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -12295,7 +12305,7 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -12320,7 +12330,7 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -12345,7 +12355,7 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -12370,7 +12380,7 @@
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -12395,7 +12405,7 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -12420,7 +12430,7 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -12445,7 +12455,7 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -12470,7 +12480,7 @@
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -12495,7 +12505,7 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -12520,7 +12530,7 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -12545,7 +12555,7 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -12570,7 +12580,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -12595,7 +12605,7 @@
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -12620,7 +12630,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -12645,7 +12655,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -12670,7 +12680,7 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -12695,7 +12705,7 @@
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -12720,7 +12730,7 @@
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -12745,7 +12755,7 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -12770,7 +12780,7 @@
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -12795,7 +12805,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -12820,7 +12830,7 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -12845,7 +12855,7 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -12870,7 +12880,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -12895,7 +12905,7 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -12920,7 +12930,7 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -12945,7 +12955,7 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -12970,7 +12980,7 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -12995,7 +13005,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -13020,7 +13030,7 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -13045,7 +13055,7 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -13070,7 +13080,7 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -13095,7 +13105,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -13120,7 +13130,7 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -13145,7 +13155,7 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -13170,7 +13180,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -13195,7 +13205,7 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -13220,7 +13230,7 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -13245,7 +13255,7 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -13270,7 +13280,7 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -13295,7 +13305,7 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -13320,7 +13330,7 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -13345,7 +13355,7 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -13370,7 +13380,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -13395,7 +13405,7 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -13420,7 +13430,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -13445,7 +13455,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -13470,7 +13480,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -13495,7 +13505,7 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -13520,7 +13530,7 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -13545,7 +13555,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -13570,7 +13580,7 @@
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>
